--- a/output/time.xlsx
+++ b/output/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgcarofano/Coding/C++/Shadow-Mapping/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9DAB90-3937-A64D-93E4-EBF7C84B99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCA508-108D-2F47-B419-E047C5B59C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17180" xr2:uid="{6D8C3ED6-7C6E-5143-8424-A639A1A2A2EB}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="15120" windowHeight="17180" xr2:uid="{6D8C3ED6-7C6E-5143-8424-A639A1A2A2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$E$1:$E$163</definedName>
     <definedName name="time_1" localSheetId="0">Foglio1!$A$1:$E$162</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{487461D6-72E0-AB40-9AED-FC9124CFA93B}" name="time" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/mgcarofano/Coding/C++/Shadow-Mapping/code/time.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/mgcarofano/Coding/C++/Shadow-Mapping/code/time.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="6">
   <si>
     <t>INIT</t>
   </si>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,10 +270,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -291,13 +288,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,22 +637,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B426849-1BC4-2841-B8DE-E90222472CA1}">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="D154" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="18.77734375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="10.77734375" style="20"/>
+    <col min="1" max="1" width="12.77734375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="18.77734375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="10.77734375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -676,7 +673,7 @@
         <v>0.1155525</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -694,7 +691,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -714,152 +711,157 @@
         <f>AVERAGE(E3:E12)</f>
         <v>1.3516099999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+      <c r="G3" s="5">
+        <f>AVERAGE(F23)</f>
+        <v>1.4911999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
         <v>-200</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>1.3212E-2</v>
       </c>
       <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
         <v>-200</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1.3216E-2</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <v>-200</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
         <v>-200</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>1.3336000000000001E-2</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
         <v>-200</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>1.3379E-2</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
         <v>-200</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1.3403999999999999E-2</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
         <v>-200</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>1.3955E-2</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
         <v>-200</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>1.4333E-2</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -877,7 +879,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -898,56 +900,56 @@
         <v>1.35245E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
         <v>-100</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>1.3161000000000001E-2</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
         <v>-100</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>1.3313E-2</v>
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A16" s="11">
         <v>1</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
         <v>-100</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>1.3509999999999999E-2</v>
       </c>
       <c r="F16" s="5"/>
@@ -956,16 +958,16 @@
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
         <v>-100</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>1.3583E-2</v>
       </c>
       <c r="F17" s="5"/>
@@ -974,16 +976,16 @@
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12">
         <v>-100</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>1.3674E-2</v>
       </c>
       <c r="F18" s="5"/>
@@ -992,16 +994,16 @@
       <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
         <v>-100</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>1.3733E-2</v>
       </c>
       <c r="F19" s="5"/>
@@ -1010,16 +1012,16 @@
       <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
         <v>-100</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>1.3767E-2</v>
       </c>
       <c r="F20" s="5"/>
@@ -1028,16 +1030,16 @@
       <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
         <v>-100</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>1.4069999999999999E-2</v>
       </c>
       <c r="F21" s="5"/>
@@ -1074,28 +1076,28 @@
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <v>2.4350000000000001E-3</v>
+        <v>5.8019999999999999E-3</v>
       </c>
       <c r="F23" s="5">
         <f>AVERAGE(E23:E34)</f>
-        <v>1.2598416666666666E-2</v>
+        <v>1.4911999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1.0851E-2</v>
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1.5207E-2</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1103,17 +1105,17 @@
       <c r="A25" s="11">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1.2508E-2</v>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1.5377E-2</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -1121,17 +1123,17 @@
       <c r="A26" s="11">
         <v>1</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>1.2970000000000001E-2</v>
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1.5862999999999999E-2</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -1139,17 +1141,17 @@
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>1.3487000000000001E-2</v>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1.5904000000000001E-2</v>
       </c>
       <c r="F27" s="5"/>
     </row>
@@ -1157,17 +1159,17 @@
       <c r="A28" s="11">
         <v>1</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>1.3747000000000001E-2</v>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1.5998999999999999E-2</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1175,17 +1177,17 @@
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1.3748E-2</v>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.6062E-2</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -1193,17 +1195,17 @@
       <c r="A30" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1.3779E-2</v>
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1.6138E-2</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -1211,17 +1213,17 @@
       <c r="A31" s="11">
         <v>1</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1.3976000000000001E-2</v>
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1.6268999999999999E-2</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -1229,54 +1231,32 @@
       <c r="A32" s="11">
         <v>1</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
-        <v>0</v>
-      </c>
-      <c r="E32" s="14">
-        <v>1.4069E-2</v>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1.6499E-2</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A33" s="11">
-        <v>1</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13">
-        <v>0</v>
-      </c>
-      <c r="E33" s="14">
-        <v>1.4352E-2</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
-      <c r="A34" s="7">
-        <v>1</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1.5259E-2</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
@@ -1304,16 +1284,16 @@
       <c r="A36" s="11">
         <v>1</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
         <v>100</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>1.3099E-2</v>
       </c>
       <c r="F36" s="5"/>
@@ -1322,16 +1302,16 @@
       <c r="A37" s="11">
         <v>1</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
         <v>100</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>1.3252999999999999E-2</v>
       </c>
       <c r="F37" s="5"/>
@@ -1340,16 +1320,16 @@
       <c r="A38" s="11">
         <v>1</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12">
         <v>100</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>1.3350000000000001E-2</v>
       </c>
       <c r="F38" s="5"/>
@@ -1358,16 +1338,16 @@
       <c r="A39" s="11">
         <v>1</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
         <v>100</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>1.3448999999999999E-2</v>
       </c>
       <c r="F39" s="5"/>
@@ -1376,16 +1356,16 @@
       <c r="A40" s="11">
         <v>1</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
         <v>100</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>1.3450999999999999E-2</v>
       </c>
       <c r="F40" s="5"/>
@@ -1394,16 +1374,16 @@
       <c r="A41" s="11">
         <v>1</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
         <v>100</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>1.374E-2</v>
       </c>
       <c r="F41" s="5"/>
@@ -1412,16 +1392,16 @@
       <c r="A42" s="11">
         <v>1</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="13">
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12">
         <v>100</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>1.3904E-2</v>
       </c>
       <c r="F42" s="5"/>
@@ -1430,16 +1410,16 @@
       <c r="A43" s="11">
         <v>1</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
         <v>100</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>1.422E-2</v>
       </c>
       <c r="F43" s="5"/>
@@ -1487,16 +1467,16 @@
       <c r="A46" s="11">
         <v>1</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13">
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
         <v>200</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>1.3117999999999999E-2</v>
       </c>
       <c r="F46" s="5"/>
@@ -1505,16 +1485,16 @@
       <c r="A47" s="11">
         <v>1</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13">
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
         <v>200</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>1.3181999999999999E-2</v>
       </c>
       <c r="F47" s="5"/>
@@ -1523,16 +1503,16 @@
       <c r="A48" s="11">
         <v>1</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="B48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
         <v>200</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>1.3391E-2</v>
       </c>
       <c r="F48" s="5"/>
@@ -1541,16 +1521,16 @@
       <c r="A49" s="11">
         <v>1</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13">
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12">
         <v>200</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>1.3462999999999999E-2</v>
       </c>
       <c r="F49" s="5"/>
@@ -1559,16 +1539,16 @@
       <c r="A50" s="11">
         <v>1</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="13">
+      <c r="B50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
         <v>200</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>1.3698E-2</v>
       </c>
       <c r="F50" s="5"/>
@@ -1577,16 +1557,16 @@
       <c r="A51" s="11">
         <v>1</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
         <v>200</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>1.3887E-2</v>
       </c>
       <c r="F51" s="5"/>
@@ -1595,16 +1575,16 @@
       <c r="A52" s="11">
         <v>1</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
         <v>200</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>1.409E-2</v>
       </c>
       <c r="F52" s="5"/>
@@ -1613,16 +1593,16 @@
       <c r="A53" s="11">
         <v>1</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13">
+      <c r="B53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
         <v>200</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>1.409E-2</v>
       </c>
       <c r="F53" s="5"/>
@@ -1659,28 +1639,28 @@
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>2.3600000000000001E-3</v>
+        <v>2.4009999999999999E-3</v>
       </c>
       <c r="F55" s="5">
         <f>AVERAGE(E55:E68)</f>
-        <v>1.187814285714286E-2</v>
+        <v>1.392111111111111E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A56" s="11">
         <v>2</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14">
-        <v>2.9450000000000001E-3</v>
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1.4829E-2</v>
       </c>
       <c r="F56" s="5"/>
     </row>
@@ -1688,17 +1668,17 @@
       <c r="A57" s="11">
         <v>2</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13">
-        <v>0</v>
-      </c>
-      <c r="E57" s="14">
-        <v>1.1894999999999999E-2</v>
+      <c r="B57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>1.5018E-2</v>
       </c>
       <c r="F57" s="5"/>
     </row>
@@ -1706,17 +1686,17 @@
       <c r="A58" s="11">
         <v>2</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0</v>
-      </c>
-      <c r="E58" s="14">
-        <v>1.2727E-2</v>
+      <c r="B58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1.5200999999999999E-2</v>
       </c>
       <c r="F58" s="5"/>
     </row>
@@ -1724,17 +1704,17 @@
       <c r="A59" s="11">
         <v>2</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="13">
-        <v>0</v>
-      </c>
-      <c r="E59" s="14">
-        <v>1.308E-2</v>
+      <c r="B59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13">
+        <v>1.5313E-2</v>
       </c>
       <c r="F59" s="5"/>
     </row>
@@ -1742,17 +1722,17 @@
       <c r="A60" s="11">
         <v>2</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="13">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14">
-        <v>1.3084999999999999E-2</v>
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1.5384999999999999E-2</v>
       </c>
       <c r="F60" s="5"/>
     </row>
@@ -1760,17 +1740,17 @@
       <c r="A61" s="11">
         <v>2</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="13">
-        <v>0</v>
-      </c>
-      <c r="E61" s="14">
-        <v>1.3329000000000001E-2</v>
+      <c r="B61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13">
+        <v>1.5651000000000002E-2</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -1778,17 +1758,17 @@
       <c r="A62" s="11">
         <v>2</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="13">
-        <v>0</v>
-      </c>
-      <c r="E62" s="14">
-        <v>1.3492000000000001E-2</v>
+      <c r="B62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="13">
+        <v>1.5729E-2</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -1796,116 +1776,58 @@
       <c r="A63" s="11">
         <v>2</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="13">
-        <v>0</v>
-      </c>
-      <c r="E63" s="14">
-        <v>1.3650000000000001E-2</v>
+      <c r="B63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13">
+        <v>1.5762999999999999E-2</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A64" s="11">
-        <v>2</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="13">
-        <v>0</v>
-      </c>
-      <c r="E64" s="14">
-        <v>1.3816E-2</v>
-      </c>
+      <c r="A64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A65" s="11">
-        <v>2</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="13">
-        <v>0</v>
-      </c>
-      <c r="E65" s="14">
-        <v>1.3879000000000001E-2</v>
-      </c>
+      <c r="A65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A66" s="11">
-        <v>2</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="13">
-        <v>0</v>
-      </c>
-      <c r="E66" s="14">
-        <v>1.3913999999999999E-2</v>
-      </c>
+      <c r="A66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A67" s="11">
-        <v>2</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="13">
-        <v>0</v>
-      </c>
-      <c r="E67" s="14">
-        <v>1.3986E-2</v>
-      </c>
+      <c r="A67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
-      <c r="A68" s="7">
-        <v>2</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="9">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10">
-        <v>1.4135999999999999E-2</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="18"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
@@ -1922,28 +1844,28 @@
         <v>0</v>
       </c>
       <c r="E70" s="4">
-        <v>3.3509999999999998E-3</v>
+        <v>7.979E-3</v>
       </c>
       <c r="F70" s="5">
         <f>AVERAGE(E70:E84)</f>
-        <v>1.0237066666666666E-2</v>
+        <v>1.2620200000000002E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A71" s="11">
         <v>3</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="13">
-        <v>0</v>
-      </c>
-      <c r="E71" s="14">
-        <v>4.8300000000000001E-3</v>
+      <c r="B71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13">
+        <v>6.2100000000000002E-3</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -1951,17 +1873,17 @@
       <c r="A72" s="11">
         <v>3</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="13">
-        <v>0</v>
-      </c>
-      <c r="E72" s="14">
-        <v>4.9360000000000003E-3</v>
+      <c r="B72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13">
+        <v>4.0590000000000001E-3</v>
       </c>
       <c r="F72" s="5"/>
     </row>
@@ -1969,17 +1891,17 @@
       <c r="A73" s="11">
         <v>3</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="13">
-        <v>0</v>
-      </c>
-      <c r="E73" s="14">
-        <v>5.6990000000000001E-3</v>
+      <c r="B73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1.5452E-2</v>
       </c>
       <c r="F73" s="5"/>
     </row>
@@ -1987,17 +1909,17 @@
       <c r="A74" s="11">
         <v>3</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="13">
-        <v>0</v>
-      </c>
-      <c r="E74" s="14">
-        <v>6.7600000000000004E-3</v>
+      <c r="B74" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="13">
+        <v>1.5611999999999999E-2</v>
       </c>
       <c r="F74" s="5"/>
     </row>
@@ -2005,17 +1927,17 @@
       <c r="A75" s="11">
         <v>3</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="13">
-        <v>0</v>
-      </c>
-      <c r="E75" s="14">
-        <v>1.1577E-2</v>
+      <c r="B75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1.5257E-2</v>
       </c>
       <c r="F75" s="5"/>
     </row>
@@ -2023,17 +1945,17 @@
       <c r="A76" s="11">
         <v>3</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="13">
-        <v>0</v>
-      </c>
-      <c r="E76" s="14">
-        <v>1.1878E-2</v>
+      <c r="B76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1.5317000000000001E-2</v>
       </c>
       <c r="F76" s="5"/>
     </row>
@@ -2041,17 +1963,17 @@
       <c r="A77" s="11">
         <v>3</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="13">
-        <v>0</v>
-      </c>
-      <c r="E77" s="14">
-        <v>1.189E-2</v>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1.5712E-2</v>
       </c>
       <c r="F77" s="5"/>
     </row>
@@ -2059,17 +1981,17 @@
       <c r="A78" s="11">
         <v>3</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13">
-        <v>0</v>
-      </c>
-      <c r="E78" s="14">
-        <v>1.2015E-2</v>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1.5001E-2</v>
       </c>
       <c r="F78" s="5"/>
     </row>
@@ -2077,111 +1999,53 @@
       <c r="A79" s="11">
         <v>3</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="13">
-        <v>0</v>
-      </c>
-      <c r="E79" s="14">
-        <v>1.2171E-2</v>
+      <c r="B79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1.5603000000000001E-2</v>
       </c>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A80" s="11">
-        <v>3</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="13">
-        <v>0</v>
-      </c>
-      <c r="E80" s="14">
-        <v>1.2174000000000001E-2</v>
-      </c>
+      <c r="A80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A81" s="11">
-        <v>3</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="13">
-        <v>0</v>
-      </c>
-      <c r="E81" s="14">
-        <v>1.3664000000000001E-2</v>
-      </c>
+    <row r="81" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
+      <c r="A81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A82" s="11">
-        <v>3</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="13">
-        <v>0</v>
-      </c>
-      <c r="E82" s="14">
-        <v>1.387E-2</v>
-      </c>
+    <row r="82" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
+      <c r="A82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
-      <c r="A83" s="11">
-        <v>3</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="13">
-        <v>0</v>
-      </c>
-      <c r="E83" s="14">
-        <v>1.4180999999999999E-2</v>
-      </c>
+    <row r="83" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
+      <c r="A83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
-      <c r="A84" s="7">
-        <v>3</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="9">
-        <v>0</v>
-      </c>
-      <c r="E84" s="10">
-        <v>1.456E-2</v>
-      </c>
+    <row r="84" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
+    <row r="85" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -2201,152 +2065,156 @@
         <f>AVERAGE(E85:E94)</f>
         <v>1.3018800000000001E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+      <c r="G85" s="5">
+        <f>AVERAGE(F105)</f>
+        <v>1.5324500000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A86" s="11">
         <v>1</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="13">
+      <c r="B86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="12">
         <v>-200</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="13">
         <v>1.2961E-2</v>
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="87" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A87" s="11">
         <v>1</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="13">
+      <c r="B87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="12">
         <v>-200</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="13">
         <v>1.3122E-2</v>
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="88" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A88" s="11">
         <v>1</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="13">
+      <c r="B88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="12">
         <v>-200</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="13">
         <v>1.3125E-2</v>
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="89" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A89" s="11">
         <v>1</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="13">
+      <c r="B89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="12">
         <v>-200</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="13">
         <v>1.3159000000000001E-2</v>
       </c>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A90" s="11">
         <v>1</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="13">
+      <c r="B90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="12">
         <v>-200</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="13">
         <v>1.3167E-2</v>
       </c>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="91" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A91" s="11">
         <v>1</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="13">
+      <c r="B91" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="12">
         <v>-200</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13">
         <v>1.3188999999999999E-2</v>
       </c>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="92" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A92" s="11">
         <v>1</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="13">
+      <c r="B92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="12">
         <v>-200</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="13">
         <v>1.3244000000000001E-2</v>
       </c>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="93" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A93" s="11">
         <v>1</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="13">
+      <c r="B93" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="12">
         <v>-200</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="13">
         <v>1.3476999999999999E-2</v>
       </c>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
       <c r="A94" s="7">
         <v>1</v>
       </c>
@@ -2364,7 +2232,7 @@
       </c>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -2385,20 +2253,20 @@
         <v>1.3331400000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A96" s="11">
         <v>1</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="13">
+      <c r="B96" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="12">
         <v>-100</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="13">
         <v>1.2843E-2</v>
       </c>
       <c r="F96" s="5"/>
@@ -2407,16 +2275,16 @@
       <c r="A97" s="11">
         <v>1</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="13">
+      <c r="B97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="12">
         <v>-100</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="13">
         <v>1.308E-2</v>
       </c>
       <c r="F97" s="5"/>
@@ -2425,16 +2293,16 @@
       <c r="A98" s="11">
         <v>1</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="13">
+      <c r="B98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="12">
         <v>-100</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="13">
         <v>1.3136999999999999E-2</v>
       </c>
       <c r="F98" s="5"/>
@@ -2443,16 +2311,16 @@
       <c r="A99" s="11">
         <v>1</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="13">
+      <c r="B99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="12">
         <v>-100</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="13">
         <v>1.3139E-2</v>
       </c>
       <c r="F99" s="5"/>
@@ -2461,16 +2329,16 @@
       <c r="A100" s="11">
         <v>1</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="13">
+      <c r="B100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="12">
         <v>-100</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="13">
         <v>1.3146E-2</v>
       </c>
       <c r="F100" s="5"/>
@@ -2479,16 +2347,16 @@
       <c r="A101" s="11">
         <v>1</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="13">
+      <c r="B101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="12">
         <v>-100</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="13">
         <v>1.3301E-2</v>
       </c>
       <c r="F101" s="5"/>
@@ -2497,16 +2365,16 @@
       <c r="A102" s="11">
         <v>1</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="13">
+      <c r="B102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="12">
         <v>-100</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="13">
         <v>1.3325E-2</v>
       </c>
       <c r="F102" s="5"/>
@@ -2515,16 +2383,16 @@
       <c r="A103" s="11">
         <v>1</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="13">
+      <c r="B103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="12">
         <v>-100</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="13">
         <v>1.4253E-2</v>
       </c>
       <c r="F103" s="5"/>
@@ -2561,28 +2429,28 @@
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <v>1.495E-3</v>
+        <v>7.0749999999999997E-3</v>
       </c>
       <c r="F105" s="5">
         <f>AVERAGE(E105:E114)</f>
-        <v>1.13242E-2</v>
+        <v>1.5324500000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A106" s="11">
         <v>1</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="13">
-        <v>0</v>
-      </c>
-      <c r="E106" s="14">
-        <v>5.4710000000000002E-3</v>
+      <c r="B106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106" s="13">
+        <v>1.6154000000000002E-2</v>
       </c>
       <c r="F106" s="5"/>
     </row>
@@ -2590,17 +2458,17 @@
       <c r="A107" s="11">
         <v>1</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="13">
-        <v>0</v>
-      </c>
-      <c r="E107" s="14">
-        <v>1.2661E-2</v>
+      <c r="B107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107" s="13">
+        <v>1.6171999999999999E-2</v>
       </c>
       <c r="F107" s="5"/>
     </row>
@@ -2608,17 +2476,17 @@
       <c r="A108" s="11">
         <v>1</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="13">
-        <v>0</v>
-      </c>
-      <c r="E108" s="14">
-        <v>1.3041000000000001E-2</v>
+      <c r="B108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0</v>
+      </c>
+      <c r="E108" s="13">
+        <v>1.619E-2</v>
       </c>
       <c r="F108" s="5"/>
     </row>
@@ -2626,17 +2494,17 @@
       <c r="A109" s="11">
         <v>1</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="13">
-        <v>0</v>
-      </c>
-      <c r="E109" s="14">
-        <v>1.3048000000000001E-2</v>
+      <c r="B109" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0</v>
+      </c>
+      <c r="E109" s="13">
+        <v>1.6233999999999998E-2</v>
       </c>
       <c r="F109" s="5"/>
     </row>
@@ -2644,17 +2512,17 @@
       <c r="A110" s="11">
         <v>1</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="13">
-        <v>0</v>
-      </c>
-      <c r="E110" s="14">
-        <v>1.3063999999999999E-2</v>
+      <c r="B110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0</v>
+      </c>
+      <c r="E110" s="13">
+        <v>1.6257000000000001E-2</v>
       </c>
       <c r="F110" s="5"/>
     </row>
@@ -2662,17 +2530,17 @@
       <c r="A111" s="11">
         <v>1</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="13">
-        <v>0</v>
-      </c>
-      <c r="E111" s="14">
-        <v>1.3102000000000001E-2</v>
+      <c r="B111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+      <c r="E111" s="13">
+        <v>1.6267E-2</v>
       </c>
       <c r="F111" s="5"/>
     </row>
@@ -2680,17 +2548,17 @@
       <c r="A112" s="11">
         <v>1</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="13">
-        <v>0</v>
-      </c>
-      <c r="E112" s="14">
-        <v>1.311E-2</v>
+      <c r="B112" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="13">
+        <v>1.6278999999999998E-2</v>
       </c>
       <c r="F112" s="5"/>
     </row>
@@ -2698,17 +2566,17 @@
       <c r="A113" s="11">
         <v>1</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="13">
-        <v>0</v>
-      </c>
-      <c r="E113" s="14">
-        <v>1.3249E-2</v>
+      <c r="B113" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113" s="13">
+        <v>1.6286999999999999E-2</v>
       </c>
       <c r="F113" s="5"/>
     </row>
@@ -2726,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="10">
-        <v>1.5001E-2</v>
+        <v>1.6330000000000001E-2</v>
       </c>
       <c r="F114" s="5"/>
     </row>
@@ -2755,16 +2623,16 @@
       <c r="A116" s="11">
         <v>1</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="13">
+      <c r="B116" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="12">
         <v>100</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="13">
         <v>1.2742E-2</v>
       </c>
       <c r="F116" s="5"/>
@@ -2773,16 +2641,16 @@
       <c r="A117" s="11">
         <v>1</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="13">
+      <c r="B117" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="12">
         <v>100</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="13">
         <v>1.2935E-2</v>
       </c>
       <c r="F117" s="5"/>
@@ -2791,16 +2659,16 @@
       <c r="A118" s="11">
         <v>1</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="13">
+      <c r="B118" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="12">
         <v>100</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="13">
         <v>1.3336000000000001E-2</v>
       </c>
       <c r="F118" s="5"/>
@@ -2809,16 +2677,16 @@
       <c r="A119" s="11">
         <v>1</v>
       </c>
-      <c r="B119" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="13">
+      <c r="B119" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="12">
         <v>100</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="13">
         <v>1.3462E-2</v>
       </c>
       <c r="F119" s="5"/>
@@ -2827,16 +2695,16 @@
       <c r="A120" s="11">
         <v>1</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="13">
+      <c r="B120" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="12">
         <v>100</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="13">
         <v>1.3631000000000001E-2</v>
       </c>
       <c r="F120" s="5"/>
@@ -2845,16 +2713,16 @@
       <c r="A121" s="11">
         <v>1</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="13">
+      <c r="B121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="12">
         <v>100</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121" s="13">
         <v>1.3835E-2</v>
       </c>
       <c r="F121" s="5"/>
@@ -2863,16 +2731,16 @@
       <c r="A122" s="11">
         <v>1</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="13">
+      <c r="B122" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="12">
         <v>100</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122" s="13">
         <v>1.3887999999999999E-2</v>
       </c>
       <c r="F122" s="5"/>
@@ -2881,16 +2749,16 @@
       <c r="A123" s="11">
         <v>1</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="13">
+      <c r="B123" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="12">
         <v>100</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123" s="13">
         <v>1.4473E-2</v>
       </c>
       <c r="F123" s="5"/>
@@ -2938,16 +2806,16 @@
       <c r="A126" s="11">
         <v>1</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="13">
+      <c r="B126" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="12">
         <v>200</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="13">
         <v>1.2482999999999999E-2</v>
       </c>
       <c r="F126" s="5"/>
@@ -2956,16 +2824,16 @@
       <c r="A127" s="11">
         <v>1</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="13">
+      <c r="B127" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="12">
         <v>200</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E127" s="13">
         <v>1.2552000000000001E-2</v>
       </c>
       <c r="F127" s="5"/>
@@ -2974,16 +2842,16 @@
       <c r="A128" s="11">
         <v>1</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="13">
+      <c r="B128" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="12">
         <v>200</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E128" s="13">
         <v>1.2935E-2</v>
       </c>
       <c r="F128" s="5"/>
@@ -2992,16 +2860,16 @@
       <c r="A129" s="11">
         <v>1</v>
       </c>
-      <c r="B129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="13">
+      <c r="B129" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="12">
         <v>200</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="13">
         <v>1.3058999999999999E-2</v>
       </c>
       <c r="F129" s="5"/>
@@ -3010,16 +2878,16 @@
       <c r="A130" s="11">
         <v>1</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="13">
+      <c r="B130" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="12">
         <v>200</v>
       </c>
-      <c r="E130" s="14">
+      <c r="E130" s="13">
         <v>1.3105E-2</v>
       </c>
       <c r="F130" s="5"/>
@@ -3028,16 +2896,16 @@
       <c r="A131" s="11">
         <v>1</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="13">
+      <c r="B131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="12">
         <v>200</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="13">
         <v>1.3162E-2</v>
       </c>
       <c r="F131" s="5"/>
@@ -3046,16 +2914,16 @@
       <c r="A132" s="11">
         <v>1</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="13">
+      <c r="B132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="12">
         <v>200</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132" s="13">
         <v>1.3655E-2</v>
       </c>
       <c r="F132" s="5"/>
@@ -3064,16 +2932,16 @@
       <c r="A133" s="11">
         <v>1</v>
       </c>
-      <c r="B133" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="13">
+      <c r="B133" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="12">
         <v>200</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133" s="13">
         <v>1.3710999999999999E-2</v>
       </c>
       <c r="F133" s="5"/>
@@ -3110,28 +2978,28 @@
         <v>0</v>
       </c>
       <c r="E135" s="4">
-        <v>1.9589999999999998E-3</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="F135" s="5">
         <f>AVERAGE(E135:E147)</f>
-        <v>1.0390461538461539E-2</v>
+        <v>1.4203200000000003E-2</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A136" s="11">
         <v>2</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="13">
-        <v>0</v>
-      </c>
-      <c r="E136" s="14">
-        <v>2.9060000000000002E-3</v>
+      <c r="B136" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0</v>
+      </c>
+      <c r="E136" s="13">
+        <v>1.5002E-2</v>
       </c>
       <c r="F136" s="5"/>
     </row>
@@ -3139,17 +3007,17 @@
       <c r="A137" s="11">
         <v>2</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="13">
-        <v>0</v>
-      </c>
-      <c r="E137" s="14">
-        <v>5.6179999999999997E-3</v>
+      <c r="B137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0</v>
+      </c>
+      <c r="E137" s="13">
+        <v>1.5076000000000001E-2</v>
       </c>
       <c r="F137" s="5"/>
     </row>
@@ -3157,17 +3025,17 @@
       <c r="A138" s="11">
         <v>2</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="13">
-        <v>0</v>
-      </c>
-      <c r="E138" s="14">
-        <v>6.7140000000000003E-3</v>
+      <c r="B138" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0</v>
+      </c>
+      <c r="E138" s="13">
+        <v>1.508E-2</v>
       </c>
       <c r="F138" s="5"/>
     </row>
@@ -3175,17 +3043,17 @@
       <c r="A139" s="11">
         <v>2</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="13">
-        <v>0</v>
-      </c>
-      <c r="E139" s="14">
-        <v>1.1781E-2</v>
+      <c r="B139" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0</v>
+      </c>
+      <c r="E139" s="13">
+        <v>1.5124E-2</v>
       </c>
       <c r="F139" s="5"/>
     </row>
@@ -3193,17 +3061,17 @@
       <c r="A140" s="11">
         <v>2</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="13">
-        <v>0</v>
-      </c>
-      <c r="E140" s="14">
-        <v>1.1886000000000001E-2</v>
+      <c r="B140" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140" s="13">
+        <v>1.5236E-2</v>
       </c>
       <c r="F140" s="5"/>
     </row>
@@ -3211,17 +3079,17 @@
       <c r="A141" s="11">
         <v>2</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="13">
-        <v>0</v>
-      </c>
-      <c r="E141" s="14">
-        <v>1.3214999999999999E-2</v>
+      <c r="B141" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0</v>
+      </c>
+      <c r="E141" s="13">
+        <v>1.5272000000000001E-2</v>
       </c>
       <c r="F141" s="5"/>
     </row>
@@ -3229,17 +3097,17 @@
       <c r="A142" s="11">
         <v>2</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="13">
-        <v>0</v>
-      </c>
-      <c r="E142" s="14">
-        <v>1.3256E-2</v>
+      <c r="B142" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0</v>
+      </c>
+      <c r="E142" s="13">
+        <v>1.5354E-2</v>
       </c>
       <c r="F142" s="5"/>
     </row>
@@ -3247,17 +3115,17 @@
       <c r="A143" s="11">
         <v>2</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="13">
-        <v>0</v>
-      </c>
-      <c r="E143" s="14">
-        <v>1.3280999999999999E-2</v>
+      <c r="B143" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+      <c r="E143" s="13">
+        <v>1.5521999999999999E-2</v>
       </c>
       <c r="F143" s="5"/>
     </row>
@@ -3265,17 +3133,17 @@
       <c r="A144" s="11">
         <v>2</v>
       </c>
-      <c r="B144" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="13">
-        <v>0</v>
-      </c>
-      <c r="E144" s="14">
-        <v>1.3372E-2</v>
+      <c r="B144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0</v>
+      </c>
+      <c r="E144" s="13">
+        <v>1.6073E-2</v>
       </c>
       <c r="F144" s="5"/>
     </row>
@@ -3283,36 +3151,32 @@
       <c r="A145" s="11">
         <v>2</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="13">
-        <v>0</v>
-      </c>
-      <c r="E145" s="14">
-        <v>1.3487000000000001E-2</v>
-      </c>
+      <c r="B145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0</v>
+      </c>
+      <c r="E145" s="13"/>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A146" s="11">
         <v>2</v>
       </c>
-      <c r="B146" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="13">
-        <v>0</v>
-      </c>
-      <c r="E146" s="14">
-        <v>1.3545E-2</v>
-      </c>
+      <c r="B146" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="12">
+        <v>0</v>
+      </c>
+      <c r="E146" s="13"/>
       <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
@@ -3328,9 +3192,7 @@
       <c r="D147" s="9">
         <v>0</v>
       </c>
-      <c r="E147" s="10">
-        <v>1.4056000000000001E-2</v>
-      </c>
+      <c r="E147" s="10"/>
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1" thickTop="1">
@@ -3347,28 +3209,28 @@
         <v>0</v>
       </c>
       <c r="E148" s="4">
-        <v>5.4869999999999997E-3</v>
+        <v>1.1923E-2</v>
       </c>
       <c r="F148" s="5">
         <f>AVERAGE(E148:E162)</f>
-        <v>9.0693333333333355E-3</v>
+        <v>1.3772499999999998E-2</v>
       </c>
     </row>
     <row r="149" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A149" s="11">
         <v>3</v>
       </c>
-      <c r="B149" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="13">
-        <v>0</v>
-      </c>
-      <c r="E149" s="14">
-        <v>5.8589999999999996E-3</v>
+      <c r="B149" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0</v>
+      </c>
+      <c r="E149" s="13">
+        <v>6.4660000000000004E-3</v>
       </c>
       <c r="F149" s="5"/>
     </row>
@@ -3376,17 +3238,17 @@
       <c r="A150" s="11">
         <v>3</v>
       </c>
-      <c r="B150" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="13">
-        <v>0</v>
-      </c>
-      <c r="E150" s="14">
-        <v>5.8799999999999998E-3</v>
+      <c r="B150" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0</v>
+      </c>
+      <c r="E150" s="13">
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="F150" s="5"/>
     </row>
@@ -3394,17 +3256,17 @@
       <c r="A151" s="11">
         <v>3</v>
       </c>
-      <c r="B151" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="13">
-        <v>0</v>
-      </c>
-      <c r="E151" s="14">
-        <v>5.9870000000000001E-3</v>
+      <c r="B151" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="12">
+        <v>0</v>
+      </c>
+      <c r="E151" s="13">
+        <v>1.6212000000000001E-2</v>
       </c>
       <c r="F151" s="5"/>
     </row>
@@ -3412,17 +3274,17 @@
       <c r="A152" s="11">
         <v>3</v>
       </c>
-      <c r="B152" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="13">
-        <v>0</v>
-      </c>
-      <c r="E152" s="14">
-        <v>6.3160000000000004E-3</v>
+      <c r="B152" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0</v>
+      </c>
+      <c r="E152" s="13">
+        <v>1.6154000000000002E-2</v>
       </c>
       <c r="F152" s="5"/>
     </row>
@@ -3430,17 +3292,17 @@
       <c r="A153" s="11">
         <v>3</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="13">
-        <v>0</v>
-      </c>
-      <c r="E153" s="14">
-        <v>7.3889999999999997E-3</v>
+      <c r="B153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0</v>
+      </c>
+      <c r="E153" s="13">
+        <v>1.6320000000000001E-2</v>
       </c>
       <c r="F153" s="5"/>
     </row>
@@ -3448,17 +3310,17 @@
       <c r="A154" s="11">
         <v>3</v>
       </c>
-      <c r="B154" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="13">
-        <v>0</v>
-      </c>
-      <c r="E154" s="14">
-        <v>7.6550000000000003E-3</v>
+      <c r="B154" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="12">
+        <v>0</v>
+      </c>
+      <c r="E154" s="13">
+        <v>1.6236E-2</v>
       </c>
       <c r="F154" s="5"/>
     </row>
@@ -3466,17 +3328,17 @@
       <c r="A155" s="11">
         <v>3</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="13">
-        <v>0</v>
-      </c>
-      <c r="E155" s="14">
-        <v>8.7589999999999994E-3</v>
+      <c r="B155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0</v>
+      </c>
+      <c r="E155" s="13">
+        <v>1.6249E-2</v>
       </c>
       <c r="F155" s="5"/>
     </row>
@@ -3484,17 +3346,17 @@
       <c r="A156" s="11">
         <v>3</v>
       </c>
-      <c r="B156" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="13">
-        <v>0</v>
-      </c>
-      <c r="E156" s="14">
-        <v>8.8620000000000001E-3</v>
+      <c r="B156" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="12">
+        <v>0</v>
+      </c>
+      <c r="E156" s="13">
+        <v>1.6267E-2</v>
       </c>
       <c r="F156" s="5"/>
     </row>
@@ -3502,17 +3364,17 @@
       <c r="A157" s="11">
         <v>3</v>
       </c>
-      <c r="B157" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="13">
-        <v>0</v>
-      </c>
-      <c r="E157" s="14">
-        <v>9.3539999999999995E-3</v>
+      <c r="B157" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0</v>
+      </c>
+      <c r="E157" s="13">
+        <v>1.6247999999999999E-2</v>
       </c>
       <c r="F157" s="5"/>
     </row>
@@ -3520,72 +3382,64 @@
       <c r="A158" s="11">
         <v>3</v>
       </c>
-      <c r="B158" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="13">
-        <v>0</v>
-      </c>
-      <c r="E158" s="14">
-        <v>1.0267999999999999E-2</v>
-      </c>
+      <c r="B158" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0</v>
+      </c>
+      <c r="E158" s="13"/>
       <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A159" s="11">
         <v>3</v>
       </c>
-      <c r="B159" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="13">
-        <v>0</v>
-      </c>
-      <c r="E159" s="14">
-        <v>1.2630000000000001E-2</v>
-      </c>
+      <c r="B159" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0</v>
+      </c>
+      <c r="E159" s="13"/>
       <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:6" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A160" s="11">
         <v>3</v>
       </c>
-      <c r="B160" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="13">
-        <v>0</v>
-      </c>
-      <c r="E160" s="14">
-        <v>1.3075E-2</v>
-      </c>
+      <c r="B160" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0</v>
+      </c>
+      <c r="E160" s="13"/>
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1">
       <c r="A161" s="11">
         <v>3</v>
       </c>
-      <c r="B161" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="13">
-        <v>0</v>
-      </c>
-      <c r="E161" s="14">
-        <v>1.4174000000000001E-2</v>
-      </c>
+      <c r="B161" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0</v>
+      </c>
+      <c r="E161" s="13"/>
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:7" s="6" customFormat="1" ht="35" customHeight="1" thickBot="1">
@@ -3601,46 +3455,44 @@
       <c r="D162" s="9">
         <v>0</v>
       </c>
-      <c r="E162" s="10">
-        <v>1.4345E-2</v>
-      </c>
+      <c r="E162" s="10"/>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:7" ht="25" thickTop="1"/>
     <row r="164" spans="1:7" ht="35" customHeight="1">
-      <c r="A164" s="13">
-        <v>1</v>
-      </c>
-      <c r="B164" s="12" t="s">
+      <c r="A164" s="12">
+        <v>1</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="21">
-        <f>AVERAGE(F85,F95,F105,F115,F125)/AVERAGE(F3,F13,F23,F35,F45)*100</f>
-        <v>96.220731202935724</v>
+      <c r="G164" s="20">
+        <f>G3/G85*100</f>
+        <v>97.308231916212577</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="35" customHeight="1">
-      <c r="A165" s="13">
-        <v>2</v>
-      </c>
-      <c r="B165" s="12" t="s">
+      <c r="A165" s="12">
+        <v>2</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G165" s="21">
-        <f>AVERAGE(F135)/AVERAGE(F55)*100</f>
-        <v>87.475472078644771</v>
+      <c r="G165" s="20">
+        <f>AVERAGE(F55)/AVERAGE(F135)*100</f>
+        <v>98.013906099407933</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="35" customHeight="1">
-      <c r="A166" s="13">
-        <v>3</v>
-      </c>
-      <c r="B166" s="12" t="s">
+      <c r="A166" s="12">
+        <v>3</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G166" s="21">
-        <f>AVERAGE(F148)/AVERAGE(F70)*100</f>
-        <v>88.593086561254552</v>
+      <c r="G166" s="20">
+        <f>AVERAGE(F70)/AVERAGE(F148)*100</f>
+        <v>91.633327282628457</v>
       </c>
     </row>
   </sheetData>

--- a/output/time.xlsx
+++ b/output/time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgcarofano/Coding/C++/Shadow-Mapping/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCA508-108D-2F47-B419-E047C5B59C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F7AEC7-526F-5747-B824-DCF44965B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="15120" windowHeight="17180" xr2:uid="{6D8C3ED6-7C6E-5143-8424-A639A1A2A2EB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17180" xr2:uid="{6D8C3ED6-7C6E-5143-8424-A639A1A2A2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -3467,8 +3467,8 @@
         <v>5</v>
       </c>
       <c r="G164" s="20">
-        <f>G3/G85*100</f>
-        <v>97.308231916212577</v>
+        <f>100-G3/G85*100</f>
+        <v>2.6917680837874229</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="35" customHeight="1">
@@ -3479,8 +3479,8 @@
         <v>5</v>
       </c>
       <c r="G165" s="20">
-        <f>AVERAGE(F55)/AVERAGE(F135)*100</f>
-        <v>98.013906099407933</v>
+        <f>100-AVERAGE(F55)/AVERAGE(F135)*100</f>
+        <v>1.986093900592067</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="35" customHeight="1">
@@ -3491,8 +3491,8 @@
         <v>5</v>
       </c>
       <c r="G166" s="20">
-        <f>AVERAGE(F70)/AVERAGE(F148)*100</f>
-        <v>91.633327282628457</v>
+        <f>100-AVERAGE(F70)/AVERAGE(F148)*100</f>
+        <v>8.3666727173715429</v>
       </c>
     </row>
   </sheetData>
